--- a/00_theory/QA_Performance_knowledge.xlsx
+++ b/00_theory/QA_Performance_knowledge.xlsx
@@ -1,13 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Timur\knowledge_library\00_theory\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E872BD26-40A3-4F7F-AD21-A0714EBFEDC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView minimized="1" xWindow="345" yWindow="2205" windowWidth="12600" windowHeight="7365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Лист1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Лист2" sheetId="2" r:id="rId5"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -35,8 +44,10 @@
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://www.software-testing.ru/library/testing/performance-testing/3695-performance-testing</t>
     </r>
@@ -168,13 +179,19 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://habr.com/ru/post/554274/</t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t>/</t>
     </r>
   </si>
@@ -280,32 +297,46 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://www.sql.ru/forum/277612/zavisit-li-skorost-vyborki-ot-razmera-bazy-dannyh</t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve"> 
 </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://sprosi.pro/questions/102448/kak-razmer-bazyi-dannyih-vliyaet-na-proizvoditelnost-teoriya-protiv-realnosti</t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve"> 
 </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://essbase.ru/archives/3292</t>
     </r>
@@ -332,20 +363,28 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://tproger.ru/explain/protokoly-peredachi-dannyh-chto-jeto-kakie-byvajut-i-v-chjom-razlichija/</t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">/
 </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://developer.mozilla.org/ru/docs/Web/HTTP/Overview</t>
     </r>
@@ -398,13 +437,19 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://tproger.ru/explain/protokoly-peredachi-dannyh-chto-jeto-kakie-byvajut-i-v-chjom-razlichija/</t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t>/</t>
     </r>
   </si>
@@ -472,20 +517,28 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://habr.com/ru/post/40227/</t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">/
 </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://intuit.ru/studies/courses/18368/1092/lecture/27089</t>
     </r>
@@ -535,13 +588,19 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://sergeygavaga.gitbooks.io/kurs-lektsii-testirovanie-programnogo-obespecheni/content/lektsiya-6-ch1-arhitektura-klient-server.html</t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t>l</t>
     </r>
   </si>
@@ -575,13 +634,19 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://codernet.ru/articles/drugoe/sinxronnaya_i_asinxronnaya_peredacha_dannyix_terminologiya_i_otlichiya/</t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t>/</t>
     </r>
   </si>
@@ -597,13 +662,19 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://habr.com/ru/post/490960/</t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t>/</t>
     </r>
   </si>
@@ -641,25 +712,37 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://habr.com/ru/post/46374/</t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve"> 
 </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://ru.wikipedia.org/wiki/%D0%92%D0%B5%D0%B1-%D1%81%D0%BB%D1%83%D0%B6%D0%B1%D0%B0</t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve"> </t>
     </r>
   </si>
@@ -759,13 +842,19 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://mcs.mail.ru/blog/chto-takoe-docker-i-kak-on-rabotaet</t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t>t</t>
     </r>
   </si>
@@ -896,114 +985,174 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="0"/>
       <name val="Times New Roman"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
-      <u/>
-      <color rgb="FF0000FF"/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <color rgb="FF1155CC"/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <color rgb="FF0000FF"/>
+      <sz val="10"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <color rgb="FF1155CC"/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <color rgb="FF0000FF"/>
+      <sz val="10"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <color rgb="FF1155CC"/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF1155CC"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1011,7 +1160,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1021,138 +1170,164 @@
     </fill>
   </fills>
   <borders count="24">
-    <border/>
     <border>
-      <left style="thick">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
         <color rgb="FF000000"/>
       </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thick">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <top style="thick">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thick">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
+      <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
         <color rgb="FF000000"/>
       </left>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
+      <right/>
       <top style="thick">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
         <color rgb="FF000000"/>
       </left>
-      <top style="thin">
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
         <color rgb="FF000000"/>
       </left>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
         <color rgb="FF000000"/>
       </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thick">
+      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thick">
         <color rgb="FF000000"/>
       </right>
@@ -1162,8 +1337,10 @@
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thick">
         <color rgb="FF000000"/>
       </right>
@@ -1173,33 +1350,42 @@
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
@@ -1211,14 +1397,19 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
@@ -1227,25 +1418,33 @@
       <right style="thick">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thick">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1254,9 +1453,11 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1271,162 +1472,135 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="51">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="16" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="18" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="19" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="19" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="19" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="20" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="21" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="22" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="23" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1616,24 +1790,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C129"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="58.0"/>
-    <col customWidth="1" min="3" max="3" width="94.43"/>
+    <col min="2" max="2" width="58" customWidth="1"/>
+    <col min="3" max="3" width="94.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1644,1365 +1823,1360 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" ht="34.5" customHeight="1">
-      <c r="A3" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+    </row>
+    <row r="3" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="47" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="45.0" customHeight="1">
-      <c r="A4" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="B4" s="9" t="s">
+    <row r="4" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="46" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" ht="39.75" customHeight="1">
-      <c r="A5" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="B5" s="9" t="s">
+    <row r="5" spans="1:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="46" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" ht="30.0" customHeight="1">
-      <c r="A6" s="8">
-        <v>4.0</v>
-      </c>
-      <c r="B6" s="9" t="s">
+    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="46" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="8">
-        <v>5.0</v>
-      </c>
-      <c r="B7" s="9" t="s">
+    <row r="7" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="8">
-        <v>6.0</v>
-      </c>
-      <c r="B8" s="9" t="s">
+    <row r="8" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" ht="28.5" customHeight="1">
-      <c r="A9" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="B9" s="9" t="s">
+    <row r="9" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" ht="42.0" customHeight="1">
-      <c r="A10" s="8">
-        <v>8.0</v>
-      </c>
-      <c r="B10" s="9" t="s">
+    <row r="10" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="8">
-        <v>9.0</v>
-      </c>
-      <c r="B11" s="9" t="s">
+    <row r="11" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="8">
-        <v>10.0</v>
-      </c>
-      <c r="B12" s="9" t="s">
+    <row r="12" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="8">
-        <v>11.0</v>
-      </c>
-      <c r="B13" s="9" t="s">
+    <row r="13" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="13">
-        <v>12.0</v>
-      </c>
-      <c r="B14" s="14" t="s">
+    <row r="14" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="9">
+        <v>12</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="B16" s="6" t="s">
+      <c r="B15" s="44"/>
+      <c r="C15" s="45"/>
+    </row>
+    <row r="16" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>1</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="B17" s="9" t="s">
+    <row r="17" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>2</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="B18" s="9" t="s">
+    <row r="18" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>3</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="8">
-        <v>4.0</v>
-      </c>
-      <c r="B19" s="9" t="s">
+    <row r="19" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>4</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="8">
-        <v>5.0</v>
-      </c>
-      <c r="B20" s="9" t="s">
+    <row r="20" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>5</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="8">
-        <v>6.0</v>
-      </c>
-      <c r="B21" s="9" t="s">
+    <row r="21" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>6</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="B22" s="9" t="s">
+    <row r="22" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>7</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="8">
-        <v>8.0</v>
-      </c>
-      <c r="B23" s="9" t="s">
+    <row r="23" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>8</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="8">
-        <v>9.0</v>
-      </c>
-      <c r="B24" s="9" t="s">
+    <row r="24" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>9</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="8">
-        <v>10.0</v>
-      </c>
-      <c r="B25" s="9" t="s">
+    <row r="25" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>10</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="8">
-        <v>11.0</v>
-      </c>
-      <c r="B26" s="9" t="s">
+    <row r="26" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <v>11</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="13">
-        <v>12.0</v>
-      </c>
-      <c r="B27" s="14" t="s">
+    <row r="27" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="9">
+        <v>12</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="4"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="B29" s="6" t="s">
+      <c r="B28" s="44"/>
+      <c r="C28" s="45"/>
+    </row>
+    <row r="29" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>1</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="12" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="B30" s="9" t="s">
+    <row r="30" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
+        <v>2</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="B31" s="9" t="s">
+    <row r="31" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
+        <v>3</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="32" ht="28.5" customHeight="1">
-      <c r="A32" s="8">
-        <v>4.0</v>
-      </c>
-      <c r="B32" s="9" t="s">
+    <row r="32" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
+        <v>4</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="8">
-        <v>5.0</v>
-      </c>
-      <c r="B33" s="9" t="s">
+    <row r="33" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
+        <v>5</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="8">
-        <v>6.0</v>
-      </c>
-      <c r="B34" s="9" t="s">
+    <row r="34" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
+        <v>6</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="B35" s="9" t="s">
+    <row r="35" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
+        <v>7</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="8">
-        <v>8.0</v>
-      </c>
-      <c r="B36" s="9" t="s">
+    <row r="36" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="4">
+        <v>8</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="8">
-        <v>9.0</v>
-      </c>
-      <c r="B37" s="9" t="s">
+    <row r="37" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
+        <v>9</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="38" ht="27.75" customHeight="1">
-      <c r="A38" s="8">
-        <v>10.0</v>
-      </c>
-      <c r="B38" s="9" t="s">
+    <row r="38" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
+        <v>10</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="8">
-        <v>11.0</v>
-      </c>
-      <c r="B39" s="9" t="s">
+    <row r="39" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
+        <v>11</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="40" ht="27.0" customHeight="1">
-      <c r="A40" s="8">
-        <v>12.0</v>
-      </c>
-      <c r="B40" s="9" t="s">
+    <row r="40" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
+        <v>12</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="41" ht="39.0" customHeight="1">
-      <c r="A41" s="8">
-        <v>13.0</v>
-      </c>
-      <c r="B41" s="9" t="s">
+    <row r="41" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
+        <v>13</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="48" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="13">
-        <v>14.0</v>
-      </c>
-      <c r="B42" s="14" t="s">
+    <row r="42" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="9">
+        <v>14</v>
+      </c>
+      <c r="B42" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C42" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="2" t="s">
+    <row r="43" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="4"/>
-    </row>
-    <row r="44" ht="30.75" customHeight="1">
-      <c r="A44" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="B44" s="6" t="s">
+      <c r="B43" s="44"/>
+      <c r="C43" s="45"/>
+    </row>
+    <row r="44" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>1</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="C44" s="49" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="45" ht="27.75" customHeight="1">
-      <c r="A45" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="B45" s="9" t="s">
+    <row r="45" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="4">
+        <v>2</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C45" s="48" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="B46" s="9" t="s">
+    <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="4">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="8">
-        <v>4.0</v>
-      </c>
-      <c r="B47" s="9" t="s">
+    <row r="47" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="4">
+        <v>4</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C47" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="8">
-        <v>5.0</v>
-      </c>
-      <c r="B48" s="9" t="s">
+    <row r="48" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="4">
+        <v>5</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C48" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="8">
-        <v>6.0</v>
-      </c>
-      <c r="B49" s="9" t="s">
+    <row r="49" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="4">
+        <v>6</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C49" s="7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="B50" s="9" t="s">
+    <row r="50" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="4">
+        <v>7</v>
+      </c>
+      <c r="B50" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C50" s="19" t="s">
+      <c r="C50" s="14" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="8">
-        <v>8.0</v>
-      </c>
-      <c r="B51" s="9" t="s">
+    <row r="51" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A51" s="4">
+        <v>8</v>
+      </c>
+      <c r="B51" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="C51" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="8">
-        <v>9.0</v>
-      </c>
-      <c r="B52" s="9" t="s">
+    <row r="52" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A52" s="4">
+        <v>9</v>
+      </c>
+      <c r="B52" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C52" s="7" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="8">
-        <v>10.0</v>
-      </c>
-      <c r="B53" s="9" t="s">
+    <row r="53" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="4">
+        <v>10</v>
+      </c>
+      <c r="B53" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C53" s="17" t="s">
+      <c r="C53" s="13" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="8">
-        <v>11.0</v>
-      </c>
-      <c r="B54" s="9" t="s">
+    <row r="54" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A54" s="4">
+        <v>11</v>
+      </c>
+      <c r="B54" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="C54" s="7" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="8">
-        <v>12.0</v>
-      </c>
-      <c r="B55" s="9" t="s">
+    <row r="55" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A55" s="4">
+        <v>12</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C55" s="7" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="8">
-        <v>13.0</v>
-      </c>
-      <c r="B56" s="9" t="s">
+    <row r="56" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A56" s="4">
+        <v>13</v>
+      </c>
+      <c r="B56" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="C56" s="7" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="8">
-        <v>14.0</v>
-      </c>
-      <c r="B57" s="9" t="s">
+    <row r="57" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A57" s="4">
+        <v>14</v>
+      </c>
+      <c r="B57" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C57" s="11" t="s">
+      <c r="C57" s="7" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="8">
-        <v>15.0</v>
-      </c>
-      <c r="B58" s="9" t="s">
+    <row r="58" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A58" s="4">
+        <v>15</v>
+      </c>
+      <c r="B58" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C58" s="7" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="8">
-        <v>16.0</v>
-      </c>
-      <c r="B59" s="9" t="s">
+    <row r="59" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A59" s="4">
+        <v>16</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="C59" s="7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="13">
-        <v>17.0</v>
-      </c>
-      <c r="B60" s="14" t="s">
+    <row r="60" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A60" s="9">
+        <v>17</v>
+      </c>
+      <c r="B60" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="C60" s="15" t="s">
+      <c r="C60" s="11" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="2" t="s">
+    <row r="61" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A61" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="B61" s="3"/>
-      <c r="C61" s="4"/>
-    </row>
-    <row r="62" ht="16.5" customHeight="1">
-      <c r="A62" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="B62" s="6" t="s">
+      <c r="B61" s="44"/>
+      <c r="C61" s="45"/>
+    </row>
+    <row r="62" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="15">
+        <v>1</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C62" s="21" t="s">
+      <c r="C62" s="16" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="63" ht="27.0" customHeight="1">
-      <c r="A63" s="22">
-        <v>2.0</v>
-      </c>
-      <c r="B63" s="9" t="s">
+    <row r="63" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="17">
+        <v>2</v>
+      </c>
+      <c r="B63" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C63" s="23" t="s">
+      <c r="C63" s="18" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="64" ht="28.5" customHeight="1">
-      <c r="A64" s="22">
-        <v>3.0</v>
-      </c>
-      <c r="B64" s="9" t="s">
+    <row r="64" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="17">
+        <v>3</v>
+      </c>
+      <c r="B64" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C64" s="24" t="s">
+      <c r="C64" s="19" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="22">
-        <v>4.0</v>
-      </c>
-      <c r="B65" s="9" t="s">
+    <row r="65" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A65" s="17">
+        <v>4</v>
+      </c>
+      <c r="B65" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C65" s="25" t="s">
+      <c r="C65" s="20" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="22">
-        <v>5.0</v>
-      </c>
-      <c r="B66" s="9" t="s">
+    <row r="66" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A66" s="17">
+        <v>5</v>
+      </c>
+      <c r="B66" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C66" s="25" t="s">
+      <c r="C66" s="20" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="22">
-        <v>6.0</v>
-      </c>
-      <c r="B67" s="9" t="s">
+    <row r="67" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A67" s="17">
+        <v>6</v>
+      </c>
+      <c r="B67" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C67" s="25" t="s">
+      <c r="C67" s="20" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="26">
-        <v>7.0</v>
-      </c>
-      <c r="B68" s="14" t="s">
+    <row r="68" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A68" s="21">
+        <v>7</v>
+      </c>
+      <c r="B68" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="C68" s="27" t="s">
+      <c r="C68" s="22" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="2" t="s">
+    <row r="69" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A69" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="B69" s="3"/>
-      <c r="C69" s="4"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="28">
-        <v>1.0</v>
-      </c>
-      <c r="B70" s="6" t="s">
+      <c r="B69" s="44"/>
+      <c r="C69" s="45"/>
+    </row>
+    <row r="70" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A70" s="23">
+        <v>1</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C70" s="29" t="s">
+      <c r="C70" s="24" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="30">
-        <v>2.0</v>
-      </c>
-      <c r="B71" s="9" t="s">
+    <row r="71" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A71" s="25">
+        <v>2</v>
+      </c>
+      <c r="B71" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C71" s="31" t="s">
+      <c r="C71" s="26" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="30">
-        <v>3.0</v>
-      </c>
-      <c r="B72" s="9" t="s">
+    <row r="72" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A72" s="25">
+        <v>3</v>
+      </c>
+      <c r="B72" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C72" s="32" t="s">
+      <c r="C72" s="27" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="30">
-        <v>4.0</v>
-      </c>
-      <c r="B73" s="9" t="s">
+    <row r="73" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A73" s="25">
+        <v>4</v>
+      </c>
+      <c r="B73" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C73" s="25" t="s">
+      <c r="C73" s="20" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="33">
-        <v>5.0</v>
-      </c>
-      <c r="B74" s="34" t="s">
+    <row r="74" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A74" s="28">
+        <v>5</v>
+      </c>
+      <c r="B74" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="C74" s="25" t="s">
+      <c r="C74" s="20" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="30">
-        <v>6.0</v>
-      </c>
-      <c r="B75" s="30" t="s">
+    <row r="75" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A75" s="25">
+        <v>6</v>
+      </c>
+      <c r="B75" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="C75" s="35" t="s">
+      <c r="C75" s="30" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="36">
-        <v>7.0</v>
-      </c>
-      <c r="B76" s="36" t="s">
+    <row r="76" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A76" s="31">
+        <v>7</v>
+      </c>
+      <c r="B76" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="C76" s="37" t="s">
+      <c r="C76" s="32" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="30">
-        <v>8.0</v>
-      </c>
-      <c r="B77" s="30" t="s">
+    <row r="77" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A77" s="25">
+        <v>8</v>
+      </c>
+      <c r="B77" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="C77" s="24" t="s">
+      <c r="C77" s="19" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="30">
-        <v>9.0</v>
-      </c>
-      <c r="B78" s="30" t="s">
+    <row r="78" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A78" s="25">
+        <v>9</v>
+      </c>
+      <c r="B78" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="C78" s="25" t="s">
+      <c r="C78" s="20" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="38">
-        <v>10.0</v>
-      </c>
-      <c r="B79" s="38" t="s">
+    <row r="79" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A79" s="33">
+        <v>10</v>
+      </c>
+      <c r="B79" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="C79" s="39" t="s">
+      <c r="C79" s="34" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="2" t="s">
+    <row r="80" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A80" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B80" s="3"/>
-      <c r="C80" s="4"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="B81" s="6" t="s">
+      <c r="B80" s="44"/>
+      <c r="C80" s="45"/>
+    </row>
+    <row r="81" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A81" s="2">
+        <v>1</v>
+      </c>
+      <c r="B81" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C81" s="16" t="s">
+      <c r="C81" s="12" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="82" ht="28.5" customHeight="1">
-      <c r="A82" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="B82" s="9" t="s">
+    <row r="82" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="4">
+        <v>2</v>
+      </c>
+      <c r="B82" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C82" s="10" t="s">
+      <c r="C82" s="50" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="B83" s="9" t="s">
+    <row r="83" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A83" s="4">
+        <v>3</v>
+      </c>
+      <c r="B83" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C83" s="11" t="s">
+      <c r="C83" s="7" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="8">
-        <v>4.0</v>
-      </c>
-      <c r="B84" s="9" t="s">
+    <row r="84" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A84" s="4">
+        <v>4</v>
+      </c>
+      <c r="B84" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="C84" s="11" t="s">
+      <c r="C84" s="7" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="85" ht="29.25" customHeight="1">
-      <c r="A85" s="8">
-        <v>5.0</v>
-      </c>
-      <c r="B85" s="9" t="s">
+    <row r="85" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="4">
+        <v>5</v>
+      </c>
+      <c r="B85" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C85" s="40" t="s">
+      <c r="C85" s="35" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="13">
-        <v>6.0</v>
-      </c>
-      <c r="B86" s="14" t="s">
+    <row r="86" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A86" s="9">
+        <v>6</v>
+      </c>
+      <c r="B86" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="C86" s="15" t="s">
+      <c r="C86" s="11" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="2" t="s">
+    <row r="87" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A87" s="43" t="s">
         <v>165</v>
       </c>
-      <c r="B87" s="3"/>
-      <c r="C87" s="4"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="B88" s="6" t="s">
+      <c r="B87" s="44"/>
+      <c r="C87" s="45"/>
+    </row>
+    <row r="88" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A88" s="2">
+        <v>1</v>
+      </c>
+      <c r="B88" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C88" s="16" t="s">
+      <c r="C88" s="12" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="B89" s="9" t="s">
+    <row r="89" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A89" s="4">
+        <v>2</v>
+      </c>
+      <c r="B89" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C89" s="11" t="s">
+      <c r="C89" s="7" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="B90" s="9" t="s">
+    <row r="90" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A90" s="4">
+        <v>3</v>
+      </c>
+      <c r="B90" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C90" s="11" t="s">
+      <c r="C90" s="7" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="8">
-        <v>4.0</v>
-      </c>
-      <c r="B91" s="9" t="s">
+    <row r="91" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A91" s="4">
+        <v>4</v>
+      </c>
+      <c r="B91" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="C91" s="11" t="s">
+      <c r="C91" s="7" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="8">
-        <v>5.0</v>
-      </c>
-      <c r="B92" s="9" t="s">
+    <row r="92" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A92" s="4">
+        <v>5</v>
+      </c>
+      <c r="B92" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="C92" s="11" t="s">
+      <c r="C92" s="7" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="8">
-        <v>6.0</v>
-      </c>
-      <c r="B93" s="9" t="s">
+    <row r="93" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A93" s="4">
+        <v>6</v>
+      </c>
+      <c r="B93" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="C93" s="11" t="s">
+      <c r="C93" s="7" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="B94" s="9" t="s">
+    <row r="94" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A94" s="4">
+        <v>7</v>
+      </c>
+      <c r="B94" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="C94" s="41"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="13">
-        <v>8.0</v>
-      </c>
-      <c r="B95" s="14" t="s">
+      <c r="C94" s="36"/>
+    </row>
+    <row r="95" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A95" s="9">
+        <v>8</v>
+      </c>
+      <c r="B95" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C95" s="42"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="2" t="s">
+      <c r="C95" s="37"/>
+    </row>
+    <row r="96" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A96" s="43" t="s">
         <v>180</v>
       </c>
-      <c r="B96" s="3"/>
-      <c r="C96" s="4"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="43">
-        <v>1.0</v>
-      </c>
-      <c r="B97" s="6" t="s">
+      <c r="B96" s="44"/>
+      <c r="C96" s="45"/>
+    </row>
+    <row r="97" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A97" s="38">
+        <v>1</v>
+      </c>
+      <c r="B97" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C97" s="44" t="s">
+      <c r="C97" s="39" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="B98" s="9" t="s">
+    <row r="98" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A98" s="4">
+        <v>2</v>
+      </c>
+      <c r="B98" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="C98" s="11" t="s">
+      <c r="C98" s="7" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="B99" s="9" t="s">
+    <row r="99" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A99" s="4">
+        <v>3</v>
+      </c>
+      <c r="B99" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C99" s="11" t="s">
+      <c r="C99" s="7" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="8">
-        <v>4.0</v>
-      </c>
-      <c r="B100" s="9" t="s">
+    <row r="100" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A100" s="4">
+        <v>4</v>
+      </c>
+      <c r="B100" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="C100" s="11" t="s">
+      <c r="C100" s="7" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="8">
-        <v>5.0</v>
-      </c>
-      <c r="B101" s="9" t="s">
+    <row r="101" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A101" s="4">
+        <v>5</v>
+      </c>
+      <c r="B101" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="C101" s="10" t="s">
+      <c r="C101" s="6" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="13">
-        <v>6.0</v>
-      </c>
-      <c r="B102" s="14" t="s">
+    <row r="102" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A102" s="9">
+        <v>6</v>
+      </c>
+      <c r="B102" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="C102" s="15" t="s">
+      <c r="C102" s="11" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="2" t="s">
+    <row r="103" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A103" s="43" t="s">
         <v>190</v>
       </c>
-      <c r="B103" s="3"/>
-      <c r="C103" s="4"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="B104" s="6" t="s">
+      <c r="B103" s="44"/>
+      <c r="C103" s="45"/>
+    </row>
+    <row r="104" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A104" s="2">
+        <v>1</v>
+      </c>
+      <c r="B104" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C104" s="16" t="s">
+      <c r="C104" s="12" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="B105" s="9" t="s">
+    <row r="105" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A105" s="4">
+        <v>2</v>
+      </c>
+      <c r="B105" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="C105" s="17" t="s">
+      <c r="C105" s="13" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="B106" s="9" t="s">
+    <row r="106" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A106" s="4">
+        <v>3</v>
+      </c>
+      <c r="B106" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C106" s="11" t="s">
+      <c r="C106" s="7" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="8">
-        <v>4.0</v>
-      </c>
-      <c r="B107" s="9" t="s">
+    <row r="107" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A107" s="4">
+        <v>4</v>
+      </c>
+      <c r="B107" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="C107" s="11" t="s">
+      <c r="C107" s="7" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="8">
-        <v>5.0</v>
-      </c>
-      <c r="B108" s="9" t="s">
+    <row r="108" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A108" s="4">
+        <v>5</v>
+      </c>
+      <c r="B108" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="C108" s="11" t="s">
+      <c r="C108" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="13">
-        <v>6.0</v>
-      </c>
-      <c r="B109" s="14" t="s">
+    <row r="109" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A109" s="9">
+        <v>6</v>
+      </c>
+      <c r="B109" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="C109" s="15" t="s">
+      <c r="C109" s="11" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="2" t="s">
+    <row r="110" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A110" s="43" t="s">
         <v>202</v>
       </c>
-      <c r="B110" s="3"/>
-      <c r="C110" s="4"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="B111" s="6" t="s">
+      <c r="B110" s="44"/>
+      <c r="C110" s="45"/>
+    </row>
+    <row r="111" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A111" s="2">
+        <v>1</v>
+      </c>
+      <c r="B111" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="C111" s="16" t="s">
+      <c r="C111" s="12" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="B112" s="9" t="s">
+    <row r="112" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A112" s="4">
+        <v>2</v>
+      </c>
+      <c r="B112" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="C112" s="11" t="s">
+      <c r="C112" s="7" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="B113" s="9" t="s">
+    <row r="113" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A113" s="4">
+        <v>3</v>
+      </c>
+      <c r="B113" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="C113" s="11" t="s">
+      <c r="C113" s="7" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="8">
-        <v>4.0</v>
-      </c>
-      <c r="B114" s="9" t="s">
+    <row r="114" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A114" s="4">
+        <v>4</v>
+      </c>
+      <c r="B114" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="C114" s="11" t="s">
+      <c r="C114" s="7" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="8">
-        <v>5.0</v>
-      </c>
-      <c r="B115" s="9" t="s">
+    <row r="115" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A115" s="4">
+        <v>5</v>
+      </c>
+      <c r="B115" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="C115" s="11" t="s">
+      <c r="C115" s="7" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="8">
-        <v>6.0</v>
-      </c>
-      <c r="B116" s="9" t="s">
+    <row r="116" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A116" s="4">
+        <v>6</v>
+      </c>
+      <c r="B116" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="C116" s="11" t="s">
+      <c r="C116" s="7" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="B117" s="9" t="s">
+    <row r="117" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A117" s="4">
+        <v>7</v>
+      </c>
+      <c r="B117" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="C117" s="11" t="s">
+      <c r="C117" s="7" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="13">
-        <v>8.0</v>
-      </c>
-      <c r="B118" s="14" t="s">
+    <row r="118" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A118" s="9">
+        <v>8</v>
+      </c>
+      <c r="B118" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="C118" s="15" t="s">
+      <c r="C118" s="11" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="2" t="s">
+    <row r="119" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A119" s="43" t="s">
         <v>219</v>
       </c>
-      <c r="B119" s="3"/>
-      <c r="C119" s="4"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="B120" s="6" t="s">
+      <c r="B119" s="44"/>
+      <c r="C119" s="45"/>
+    </row>
+    <row r="120" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A120" s="2">
+        <v>1</v>
+      </c>
+      <c r="B120" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="C120" s="16" t="s">
+      <c r="C120" s="12" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="B121" s="9" t="s">
+    <row r="121" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A121" s="4">
+        <v>2</v>
+      </c>
+      <c r="B121" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="C121" s="11" t="s">
+      <c r="C121" s="7" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="B122" s="9" t="s">
+    <row r="122" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A122" s="4">
+        <v>3</v>
+      </c>
+      <c r="B122" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="C122" s="11" t="s">
+      <c r="C122" s="7" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="13">
-        <v>4.0</v>
-      </c>
-      <c r="B123" s="14" t="s">
+    <row r="123" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A123" s="9">
+        <v>4</v>
+      </c>
+      <c r="B123" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="C123" s="15" t="s">
+      <c r="C123" s="11" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" s="2" t="s">
+    <row r="124" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A124" s="43" t="s">
         <v>228</v>
       </c>
-      <c r="B124" s="3"/>
-      <c r="C124" s="4"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="B125" s="6" t="s">
+      <c r="B124" s="44"/>
+      <c r="C124" s="45"/>
+    </row>
+    <row r="125" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A125" s="2">
+        <v>1</v>
+      </c>
+      <c r="B125" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="C125" s="16" t="s">
+      <c r="C125" s="12" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="B126" s="9" t="s">
+    <row r="126" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="4">
+        <v>2</v>
+      </c>
+      <c r="B126" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="C126" s="19" t="s">
+      <c r="C126" s="14" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="127" ht="17.25" customHeight="1">
-      <c r="A127" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="B127" s="9" t="s">
+    <row r="127" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="4">
+        <v>3</v>
+      </c>
+      <c r="B127" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="C127" s="19" t="s">
+      <c r="C127" s="14" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="128" ht="17.25" customHeight="1">
-      <c r="A128" s="8">
-        <v>4.0</v>
-      </c>
-      <c r="B128" s="9" t="s">
+    <row r="128" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="4">
+        <v>4</v>
+      </c>
+      <c r="B128" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="C128" s="19" t="s">
+      <c r="C128" s="14" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="129" ht="16.5" customHeight="1">
-      <c r="A129" s="13">
-        <v>5.0</v>
-      </c>
-      <c r="B129" s="14" t="s">
+    <row r="129" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="9">
+        <v>5</v>
+      </c>
+      <c r="B129" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="C129" s="45" t="s">
+      <c r="C129" s="40" t="s">
         <v>232</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="A96:C96"/>
-    <mergeCell ref="A103:C103"/>
-    <mergeCell ref="A110:C110"/>
-    <mergeCell ref="A119:C119"/>
     <mergeCell ref="A124:C124"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A15:C15"/>
@@ -3011,142 +3185,149 @@
     <mergeCell ref="A61:C61"/>
     <mergeCell ref="A69:C69"/>
     <mergeCell ref="A80:C80"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="A96:C96"/>
+    <mergeCell ref="A103:C103"/>
+    <mergeCell ref="A110:C110"/>
+    <mergeCell ref="A119:C119"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C3"/>
-    <hyperlink r:id="rId2" ref="C4"/>
-    <hyperlink r:id="rId3" ref="C5"/>
-    <hyperlink r:id="rId4" ref="C6"/>
-    <hyperlink r:id="rId5" ref="C7"/>
-    <hyperlink r:id="rId6" ref="C8"/>
-    <hyperlink r:id="rId7" ref="C9"/>
-    <hyperlink r:id="rId8" ref="C10"/>
-    <hyperlink r:id="rId9" ref="C11"/>
-    <hyperlink r:id="rId10" ref="C12"/>
-    <hyperlink r:id="rId11" ref="C13"/>
-    <hyperlink r:id="rId12" ref="C14"/>
-    <hyperlink r:id="rId13" ref="C16"/>
-    <hyperlink r:id="rId14" ref="C17"/>
-    <hyperlink r:id="rId15" ref="C18"/>
-    <hyperlink r:id="rId16" ref="C19"/>
-    <hyperlink r:id="rId17" ref="C20"/>
-    <hyperlink r:id="rId18" ref="C21"/>
-    <hyperlink r:id="rId19" ref="C22"/>
-    <hyperlink r:id="rId20" ref="C23"/>
-    <hyperlink r:id="rId21" ref="C24"/>
-    <hyperlink r:id="rId22" ref="C25"/>
-    <hyperlink r:id="rId23" ref="C26"/>
-    <hyperlink r:id="rId24" ref="C27"/>
-    <hyperlink r:id="rId25" ref="C29"/>
-    <hyperlink r:id="rId26" ref="C30"/>
-    <hyperlink r:id="rId27" ref="C31"/>
-    <hyperlink r:id="rId28" ref="C32"/>
-    <hyperlink r:id="rId29" ref="C33"/>
-    <hyperlink r:id="rId30" ref="C34"/>
-    <hyperlink r:id="rId31" ref="C35"/>
-    <hyperlink r:id="rId32" ref="C36"/>
-    <hyperlink r:id="rId33" ref="C37"/>
-    <hyperlink r:id="rId34" ref="C38"/>
-    <hyperlink r:id="rId35" ref="C39"/>
-    <hyperlink r:id="rId36" ref="C40"/>
-    <hyperlink r:id="rId37" ref="C41"/>
-    <hyperlink r:id="rId38" ref="C42"/>
-    <hyperlink r:id="rId39" ref="C44"/>
-    <hyperlink r:id="rId40" ref="C45"/>
-    <hyperlink r:id="rId41" ref="C46"/>
-    <hyperlink r:id="rId42" ref="C47"/>
-    <hyperlink r:id="rId43" ref="C48"/>
-    <hyperlink r:id="rId44" ref="C49"/>
-    <hyperlink r:id="rId45" ref="C50"/>
-    <hyperlink r:id="rId46" ref="C51"/>
-    <hyperlink r:id="rId47" ref="C52"/>
-    <hyperlink r:id="rId48" ref="C53"/>
-    <hyperlink r:id="rId49" ref="C54"/>
-    <hyperlink r:id="rId50" ref="C55"/>
-    <hyperlink r:id="rId51" ref="C56"/>
-    <hyperlink r:id="rId52" ref="C57"/>
-    <hyperlink r:id="rId53" ref="C58"/>
-    <hyperlink r:id="rId54" ref="C59"/>
-    <hyperlink r:id="rId55" ref="C60"/>
-    <hyperlink r:id="rId56" location="%D0%9F%D1%80%D0%BE%D0%B8%D0%B7%D0%B2%D0%BE%D0%B4%D0%B8%D1%82%D0%B5%D0%BB%D1%8C%D0%BD%D0%BE%D1%81%D1%82%D1%8C" ref="C62"/>
-    <hyperlink r:id="rId57" ref="C63"/>
-    <hyperlink r:id="rId58" ref="C64"/>
-    <hyperlink r:id="rId59" ref="C65"/>
-    <hyperlink r:id="rId60" ref="C66"/>
-    <hyperlink r:id="rId61" ref="C67"/>
-    <hyperlink r:id="rId62" ref="C68"/>
-    <hyperlink r:id="rId63" ref="C70"/>
-    <hyperlink r:id="rId64" ref="C71"/>
-    <hyperlink r:id="rId65" ref="C72"/>
-    <hyperlink r:id="rId66" ref="C73"/>
-    <hyperlink r:id="rId67" ref="C74"/>
-    <hyperlink r:id="rId68" ref="C75"/>
-    <hyperlink r:id="rId69" ref="C76"/>
-    <hyperlink r:id="rId70" ref="C77"/>
-    <hyperlink r:id="rId71" ref="C78"/>
-    <hyperlink r:id="rId72" ref="C79"/>
-    <hyperlink r:id="rId73" ref="C81"/>
-    <hyperlink r:id="rId74" ref="C82"/>
-    <hyperlink r:id="rId75" ref="C83"/>
-    <hyperlink r:id="rId76" ref="C84"/>
-    <hyperlink r:id="rId77" ref="C85"/>
-    <hyperlink r:id="rId78" ref="C86"/>
-    <hyperlink r:id="rId79" ref="C88"/>
-    <hyperlink r:id="rId80" ref="C89"/>
-    <hyperlink r:id="rId81" ref="C90"/>
-    <hyperlink r:id="rId82" ref="C91"/>
-    <hyperlink r:id="rId83" ref="C92"/>
-    <hyperlink r:id="rId84" ref="C93"/>
-    <hyperlink r:id="rId85" ref="C97"/>
-    <hyperlink r:id="rId86" ref="C98"/>
-    <hyperlink r:id="rId87" ref="C99"/>
-    <hyperlink r:id="rId88" ref="C100"/>
-    <hyperlink r:id="rId89" ref="C101"/>
-    <hyperlink r:id="rId90" ref="C102"/>
-    <hyperlink r:id="rId91" ref="C104"/>
-    <hyperlink r:id="rId92" ref="C105"/>
-    <hyperlink r:id="rId93" ref="C106"/>
-    <hyperlink r:id="rId94" ref="C107"/>
-    <hyperlink r:id="rId95" ref="C108"/>
-    <hyperlink r:id="rId96" ref="C109"/>
-    <hyperlink r:id="rId97" ref="C111"/>
-    <hyperlink r:id="rId98" ref="C112"/>
-    <hyperlink r:id="rId99" ref="C113"/>
-    <hyperlink r:id="rId100" ref="C114"/>
-    <hyperlink r:id="rId101" ref="C115"/>
-    <hyperlink r:id="rId102" ref="C116"/>
-    <hyperlink r:id="rId103" ref="C117"/>
-    <hyperlink r:id="rId104" ref="C118"/>
-    <hyperlink r:id="rId105" ref="C120"/>
-    <hyperlink r:id="rId106" ref="C121"/>
-    <hyperlink r:id="rId107" ref="C122"/>
-    <hyperlink r:id="rId108" ref="C123"/>
-    <hyperlink r:id="rId109" ref="C125"/>
-    <hyperlink r:id="rId110" ref="C126"/>
-    <hyperlink r:id="rId111" ref="C127"/>
-    <hyperlink r:id="rId112" ref="C128"/>
-    <hyperlink r:id="rId113" ref="C129"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C13" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C14" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C16" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C17" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C18" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C19" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C20" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C21" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C22" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C23" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C24" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C25" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C26" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="C27" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="C29" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="C30" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="C31" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="C32" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="C33" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="C34" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C35" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="C36" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="C37" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C38" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C39" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C40" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="C41" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="C42" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="C44" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="C45" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="C46" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="C47" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="C48" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="C49" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="C50" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="C51" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="C52" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="C53" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="C54" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="C55" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="C56" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="C57" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="C58" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="C59" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="C60" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="C62" r:id="rId56" location="%D0%9F%D1%80%D0%BE%D0%B8%D0%B7%D0%B2%D0%BE%D0%B4%D0%B8%D1%82%D0%B5%D0%BB%D1%8C%D0%BD%D0%BE%D1%81%D1%82%D1%8C" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="C63" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="C64" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="C65" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="C66" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="C67" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="C68" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="C70" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="C71" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="C72" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="C73" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="C74" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="C75" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="C76" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="C77" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="C78" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="C79" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="C81" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="C82" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="C83" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="C84" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="C85" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="C86" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="C88" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="C89" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="C90" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="C91" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="C92" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="C93" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="C97" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="C98" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="C99" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="C100" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="C101" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="C102" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="C104" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="C105" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="C106" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="C107" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="C108" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="C109" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="C111" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="C112" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="C113" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="C114" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="C115" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="C116" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="C117" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="C118" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="C120" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="C121" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="C122" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="C123" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="C125" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="C126" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="C127" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="C128" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="C129" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
   </hyperlinks>
-  <drawing r:id="rId114"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId114"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="14.71"/>
-    <col customWidth="1" min="2" max="2" width="43.86"/>
-    <col customWidth="1" min="3" max="3" width="43.71"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="43.85546875" customWidth="1"/>
+    <col min="3" max="3" width="43.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3157,167 +3338,167 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="47"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="47"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="47"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="47"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="47"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="47"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="47"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="47"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="47"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="47"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="47"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="47"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="47"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="47"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="47"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="47"/>
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="47"/>
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="47"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="47"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="47"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="47"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="47"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="47"/>
-      <c r="B26" s="47"/>
-      <c r="C26" s="47"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="47"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="47"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="47"/>
-      <c r="B28" s="47"/>
-      <c r="C28" s="47"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="47"/>
-      <c r="B29" s="47"/>
-      <c r="C29" s="47"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="47"/>
-      <c r="B30" s="47"/>
-      <c r="C30" s="47"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="47"/>
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="47"/>
-      <c r="B32" s="47"/>
-      <c r="C32" s="47"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="47"/>
-      <c r="B33" s="47"/>
-      <c r="C33" s="47"/>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="42"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="42"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="42"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="42"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="42"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="42"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="42"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="42"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="42"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="42"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="42"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="42"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="42"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="42"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="42"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="42"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="42"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="42"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="42"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="42"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="42"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="42"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="42"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="42"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="42"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="42"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="42"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>